--- a/biology/Botanique/Graham_Duncan/Graham_Duncan.xlsx
+++ b/biology/Botanique/Graham_Duncan/Graham_Duncan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Graham Dugald Duncan (né en 1959) est un botaniste sud-africain et un horticulteur spécialiste des bulbes au Kirstenbosch National Botanical Garden, au Cap, en Afrique du Sud.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Graham Duncan est né en 1959[1]  et a grandi dans la région du Cap-Occidental parmi ses plantes bulbeuses sauvages. Il fait ses études au Cape Town Technikon (université de technologie de la péninsule du Cap) en obtenant un diplôme national en horticulture[2],[3], il rejoint le Kirstenbosch National Botanical Garden, au Cap, Afrique du Sud en 1978, où il travaille avec Winsome Fanny Barker (1907-1994), alors conservatrice de l'herbier Compton à Kirstenbosch et spécialiste des Lachenalia. Il obtient son MSc (Mention honorifique ; Master of Science) en botanique à l'Université du KwaZulu-Natal, Pietermaritzburg en 2005 [4],[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Graham Duncan est né en 1959  et a grandi dans la région du Cap-Occidental parmi ses plantes bulbeuses sauvages. Il fait ses études au Cape Town Technikon (université de technologie de la péninsule du Cap) en obtenant un diplôme national en horticulture il rejoint le Kirstenbosch National Botanical Garden, au Cap, Afrique du Sud en 1978, où il travaille avec Winsome Fanny Barker (1907-1994), alors conservatrice de l'herbier Compton à Kirstenbosch et spécialiste des Lachenalia. Il obtient son MSc (Mention honorifique ; Master of Science) en botanique à l'Université du KwaZulu-Natal, Pietermaritzburg en 2005 ,.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Graham Duncan est un horticulteur spécialiste des géophytes ; il est conservateur de musée sur la collection de géophytes indigènes d'Afrique du Sud au Kirstenbosch Botanical Garden. Celles-ci sont exposées dans la Kay Bergh Bulb House du Kirstenbosch Conservatory[6]. Il est considéré comme une autorité sur la culture, la conservation, la propagation et la biologie des bulbes de la région du Cap, et le principal expert du genre Lachenalia [7],[8],[9]. Ses recherches portent sur la biologie et la taxonomie des bulbes du Cap [5].
-En parallèle avec son travail sur Lachenalia [10],[11] il est connu pour son expertise sur Nerine[12], Eucomis et Agapanthus. En plus d'identifier un certain nombre de plantes sud-africaines, il a également sélectionné des cultivars tels que Clivia miniata 'Kirstenbosch Splendour', qui illustre la couverture du livre du centenaire de Kirstenbosch (2013)[13],[9],[14].
-Il est l'auteur de nombreux livres, dont plusieurs titres dans la Kirstenbosch Gardening Series, d'articles scientifiques et d'articles de vulgarisation sur les plantes bulbeuses d'Afrique du Sud[4]. Il est également collectionneur de plantes[1]  et photographe de plantes (voir image) et ses photographies illustrent ses propres livres et ont été publiées dans The Smallest Kingdom: Plants and Plant Collectors at the Cape of Good Hope (2011) [8],[9],[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Graham Duncan est un horticulteur spécialiste des géophytes ; il est conservateur de musée sur la collection de géophytes indigènes d'Afrique du Sud au Kirstenbosch Botanical Garden. Celles-ci sont exposées dans la Kay Bergh Bulb House du Kirstenbosch Conservatory. Il est considéré comme une autorité sur la culture, la conservation, la propagation et la biologie des bulbes de la région du Cap, et le principal expert du genre Lachenalia . Ses recherches portent sur la biologie et la taxonomie des bulbes du Cap .
+En parallèle avec son travail sur Lachenalia , il est connu pour son expertise sur Nerine, Eucomis et Agapanthus. En plus d'identifier un certain nombre de plantes sud-africaines, il a également sélectionné des cultivars tels que Clivia miniata 'Kirstenbosch Splendour', qui illustre la couverture du livre du centenaire de Kirstenbosch (2013).
+Il est l'auteur de nombreux livres, dont plusieurs titres dans la Kirstenbosch Gardening Series, d'articles scientifiques et d'articles de vulgarisation sur les plantes bulbeuses d'Afrique du Sud. Il est également collectionneur de plantes  et photographe de plantes (voir image) et ses photographies illustrent ses propres livres et ont été publiées dans The Smallest Kingdom: Plants and Plant Collectors at the Cape of Good Hope (2011) .
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1989, il reçoit le prix Recht Malan pour la non-fiction (1989) du Nasionale Boekhandel pour ses plantes bulbeuses d'Afrique australe [15] et en 2001, il reçoit la médaille Herbert de l' International Bulb Society [16],[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1989, il reçoit le prix Recht Malan pour la non-fiction (1989) du Nasionale Boekhandel pour ses plantes bulbeuses d'Afrique australe  et en 2001, il reçoit la médaille Herbert de l' International Bulb Society ,.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Héritage</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les plantes pour lesquelles Duncan est l'autorité botanique comprennent de nombreuses espèces de Lachenalia, la plupart en collaboration avec W.F.Barker. L'International Plant Names Index répertorie 54 taxons nommés par lui, principalement des espèces de Lachenalia.
 </t>
@@ -639,19 +659,96 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Livres
-Graham Duncan, The Lachenalia handbook: a guide to the genus, with introductory notes on history, identification and cultivation, with descriptions of the species and colour illustrations, Kirstenbosch, South Africa., National Botanic Gardens of South Africa, coll. « Annals of Kirstenbosch Botanic Gardens, vol. 17 », 1988 (ISBN 9780620119535)
+          <t>Livres</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Graham Duncan, The Lachenalia handbook: a guide to the genus, with introductory notes on history, identification and cultivation, with descriptions of the species and colour illustrations, Kirstenbosch, South Africa., National Botanic Gardens of South Africa, coll. « Annals of Kirstenbosch Botanic Gardens, vol. 17 », 1988 (ISBN 9780620119535)
 Niel du Plessis et Graham Duncan, Bulbous plants of southern Africa: a guide to their cultivation and propagation, Cape Town, Tafelberg, 1989 (ISBN 9780624026594)
-Graham Duncan, The genus Lachenalia, Richmond, Surrey, Royal Botanic Gardens, Kew, coll. « Botanical Magazine Monographs », 2012 (ISBN 9781842463826, lire en ligne)
-Série du jardinage Kirstenbosch
-Graham Duncan, Grow Nerines: a guide to the species, cultivation and propagation of the genus Nerine, Claremont, South Africa, National Botanical Institute, Kirstenbosch, 2002 (ISBN 9781919684338, lire en ligne)
+Graham Duncan, The genus Lachenalia, Richmond, Surrey, Royal Botanic Gardens, Kew, coll. « Botanical Magazine Monographs », 2012 (ISBN 9781842463826, lire en ligne)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Graham_Duncan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Graham_Duncan</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Quelques Publications</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Livres</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Série du jardinage Kirstenbosch</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Graham Duncan, Grow Nerines: a guide to the species, cultivation and propagation of the genus Nerine, Claremont, South Africa, National Botanical Institute, Kirstenbosch, 2002 (ISBN 9781919684338, lire en ligne)
 Graham Duncan, Grow Clivias: a guide to the species, selected hybrids, cultivation and propagation of the genus Clivia, Claremont, South Africa, 2nd, 2008 (ISBN 978-1-919684-51-2)
 Graham Duncan, Neville Brown Louise et Louise Nurrish, Grow Proteas: A Guide to the Cultivation and Propagation of South African Proteaceae, 2nd, 2013 (ISBN 978-1-919976-80-8)
-Hildegard Crous et Graham Duncan, Grow Disas: a practical guide to the cultivation and propagation of evergreen and deciduous Disa species of Southern Africa, Claremont, South Africa, South African National Biodiversity Institute, Kirstenbosch, 2006 (ISBN 9781919684505, lire en ligne)[17]
+Hildegard Crous et Graham Duncan, Grow Disas: a practical guide to the cultivation and propagation of evergreen and deciduous Disa species of Southern Africa, Claremont, South Africa, South African National Biodiversity Institute, Kirstenbosch, 2006 (ISBN 9781919684505, lire en ligne)
 Graham Duncan, Grow Agapanthus: a guide to the species, cultivation and propagation of the genus Agapanthus, Claremont, South Africa, National Botanical Institute, Kirstenbosch, 1998 (ISBN 978-1919684147)
-Graham Duncan, Grow Bulbs: a guide to the species, cultivation and propagation of South African bulbs, Cape Town, 2nd, 2010 (1re éd. 2000) (ISBN 978-1919684260)[4]
-Articles
-Zonneveld et Duncan, « Genome size for the species of Nerine Herb. (Amaryllidaceae) and its evident correlation with growth cycle, leaf width and other morphological characters », Plant Systematics and Evolution, vol. 257, nos 3–4,‎ mars 2006, p. 251–260 (DOI 10.1007/s00606-005-0381-x, lire en ligne)
+Graham Duncan, Grow Bulbs: a guide to the species, cultivation and propagation of South African bulbs, Cape Town, 2nd, 2010 (1re éd. 2000) (ISBN 978-1919684260)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Graham_Duncan</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Graham_Duncan</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Quelques Publications</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Articles</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Zonneveld et Duncan, « Genome size for the species of Nerine Herb. (Amaryllidaceae) and its evident correlation with growth cycle, leaf width and other morphological characters », Plant Systematics and Evolution, vol. 257, nos 3–4,‎ mars 2006, p. 251–260 (DOI 10.1007/s00606-005-0381-x, lire en ligne)
 Zonneveld et Duncan, « Genome sizes of Eucomis L'Hér. (Hyacinthaceae) and a description of the new species Eucomis grimshawii G.D.Duncan &amp; Zonneveld », Plant Systematics and Evolution, vol. 284, nos 1–2,‎ 10 décembre 2009, p. 99–109 (DOI 10.1007/s00606-009-0236-y)</t>
         </is>
       </c>
